--- a/Levels/level_generators/level1/u_level1.xlsx
+++ b/Levels/level_generators/level1/u_level1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="460" windowWidth="15340" windowHeight="14080" tabRatio="500"/>
+    <workbookView xWindow="10260" yWindow="460" windowWidth="15340" windowHeight="14060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="o_level1" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M16" sqref="A13:M16"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>

--- a/Levels/level_generators/level1/u_level1.xlsx
+++ b/Levels/level_generators/level1/u_level1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="460" windowWidth="15340" windowHeight="14060" tabRatio="500"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="15340" windowHeight="14060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="o_level1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
   <si>
     <t>W</t>
   </si>
   <si>
     <t>_</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>R</t>
@@ -48,6 +45,12 @@
   </si>
   <si>
     <t>S(D)</t>
+  </si>
+  <si>
+    <t>D(L)</t>
+  </si>
+  <si>
+    <t>KW</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,103 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -687,7 +786,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -850,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>1</v>
@@ -964,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
@@ -1048,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
@@ -1081,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -1120,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -1141,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>1</v>
@@ -1274,44 +1373,52 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:P16">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="S(D)">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="S(D)">
       <formula>NOT(ISERROR(SEARCH("S(D)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="K">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="K">
       <formula>NOT(ISERROR(SEARCH("K",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="12" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="13" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="D(L)">
+      <formula>NOT(ISERROR(SEARCH("D(L)",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="KW">
+      <formula>NOT(ISERROR(SEARCH("KW",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Levels/level_generators/level1/u_level1.xlsx
+++ b/Levels/level_generators/level1/u_level1.xlsx
@@ -101,31 +101,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color theme="1"/>
@@ -133,30 +109,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
       <border>
@@ -786,7 +738,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1373,51 +1325,51 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:P16">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="S(D)">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="S(D)">
       <formula>NOT(ISERROR(SEARCH("S(D)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="K">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="K">
       <formula>NOT(ISERROR(SEARCH("K",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="3" priority="14" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="2" priority="15" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="D(L)">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="D(L)">
       <formula>NOT(ISERROR(SEARCH("D(L)",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="KW">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="KW">
       <formula>NOT(ISERROR(SEARCH("KW",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Levels/level_generators/level1/u_level1.xlsx
+++ b/Levels/level_generators/level1/u_level1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="15340" windowHeight="14060" tabRatio="500"/>
+    <workbookView xWindow="12860" yWindow="480" windowWidth="15340" windowHeight="14060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="o_level1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="3">
   <si>
     <t>W</t>
   </si>
@@ -35,22 +35,7 @@
     <t>_</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>S(D)</t>
-  </si>
-  <si>
-    <t>D(L)</t>
-  </si>
-  <si>
-    <t>KW</t>
   </si>
 </sst>
 </file>
@@ -738,7 +723,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -901,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>1</v>
@@ -1015,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
@@ -1099,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
@@ -1132,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -1171,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -1192,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>1</v>
